--- a/code/res/LJA Extensions documentations.xlsx
+++ b/code/res/LJA Extensions documentations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://integroit-my.sharepoint.com/personal/lukasz_jessa_it_integro_pl/Documents/integro/Jeremias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\altraining\al\code\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{E5B31DFF-D72A-4349-B741-392F60ED0407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8775129C-A6BE-46BB-9344-E42AF07044CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7472BDF-410B-4AFB-9FA1-9F4E6FED8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-972" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIPPER GT - Tests" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_FilterDatabase" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
     <definedName name="_FilterDatabase3" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
     <definedName name="_FilterDatabase4" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SCIPPER GT - Tests'!$A$4:$E$27</definedName>
     <definedName name="FilterDatabase" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
     <definedName name="FilterDatabase3" localSheetId="1" hidden="1">'AL Demo App'!$A$4:$N$5</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -347,9 +347,6 @@
     <t>ITISGT Item</t>
   </si>
   <si>
-    <t>Data Structure Analysis</t>
-  </si>
-  <si>
     <t>ITISGTTestFollowUp.Codeunit.al</t>
   </si>
   <si>
@@ -360,18 +357,134 @@
   </si>
   <si>
     <t>LJA</t>
+  </si>
+  <si>
+    <t>ITISGT Minimum Inventory</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>ITISGT Global Excess Stock</t>
+  </si>
+  <si>
+    <t>LJ</t>
+  </si>
+  <si>
+    <t>ITISGTCustomer.TableExt.al</t>
+  </si>
+  <si>
+    <t>ITISGT Customer</t>
+  </si>
+  <si>
+    <t>ITISGT Check Freight &amp; Charges</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>ITISGT Transact. Specification</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>ITISGT Transaction Type</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>ITISGTCPQLineAttribute.Table.al</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>ITISGT CPQ Line Attribute</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document No.</t>
+  </si>
+  <si>
+    <t>Document Line No.</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Line No.</t>
+  </si>
+  <si>
+    <t>Attribute Code</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>ITISGTCustomerBlocked.EnumExt.al</t>
+  </si>
+  <si>
+    <t>EnumExt</t>
+  </si>
+  <si>
+    <t>ITISGT Customer Blocked</t>
+  </si>
+  <si>
+    <t>ITISGT Release</t>
+  </si>
+  <si>
+    <t>ITISGT All Except Quote</t>
+  </si>
+  <si>
+    <t>ITISGTGlobalItemQuantities.Codeunit.al</t>
+  </si>
+  <si>
+    <t>Codeunit</t>
+  </si>
+  <si>
+    <t>ITISGT Global Item Quantities</t>
+  </si>
+  <si>
+    <t>ITISGTSalesLineManagement.Codeunit.al</t>
+  </si>
+  <si>
+    <t>ITISGT Sales Line Management</t>
+  </si>
+  <si>
+    <t>ITISGTEvSalesLine.Codeunit.al</t>
+  </si>
+  <si>
+    <t>ITISGT Ev Sales Line</t>
+  </si>
+  <si>
+    <t>ITISGTEvPurchLine.Codeunit.al</t>
+  </si>
+  <si>
+    <t>ITISGT Ev Purch Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,14 +546,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -463,7 +579,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <namedSheetView name="Kacper" id="{2E0A35DF-7A60-41A2-AAAF-69555C2EC46A}">
-    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N5" tableId="0">
+    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N24" tableId="0">
       <columnFilter colId="1">
         <filter colId="1">
           <x:filters>
@@ -474,7 +590,7 @@
     </nsvFilter>
   </namedSheetView>
   <namedSheetView name="Pages" id="{DD24EC4C-D5BB-4C0B-9EEB-7B8E2B20037B}">
-    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N5" tableId="0">
+    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N24" tableId="0">
       <columnFilter colId="1">
         <filter colId="1">
           <x:filters>
@@ -485,7 +601,7 @@
     </nsvFilter>
   </namedSheetView>
   <namedSheetView name="Tables" id="{F5EF4791-B247-49EE-98EE-099DDDC72493}">
-    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N5" tableId="0">
+    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N24" tableId="0">
       <columnFilter colId="1">
         <filter colId="1">
           <x:filters>
@@ -503,7 +619,7 @@
     </nsvFilter>
   </namedSheetView>
   <namedSheetView name="Widok - Kacper" id="{BDC2AA29-95BE-4584-B860-17C4EB278CB6}">
-    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N5" tableId="0">
+    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N24" tableId="0">
       <columnFilter colId="1">
         <filter colId="1">
           <x:filters>
@@ -514,7 +630,7 @@
     </nsvFilter>
   </namedSheetView>
   <namedSheetView name="Widok - Patryk" id="{5DCA9277-44F0-47C0-9469-77D5A70B93ED}">
-    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N5" tableId="0"/>
+    <nsvFilter filterId="{00000000-0001-0000-0000-000000000000}" ref="A4:N24" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -1354,7 +1470,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1363,7 +1479,7 @@
         <v>80521</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1378,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1428,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -1509,9 +1625,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
         <v>27</v>
@@ -1520,14 +1634,562 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>80000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6">
+        <v>80000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6">
+        <v>83525</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>80000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>80001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7">
+        <v>83521</v>
+      </c>
+      <c r="K7">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="2">
+        <v>80001</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>80001</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>80000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9">
+        <v>83300</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>80001</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>80001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10">
+        <v>85102</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>80001</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>80002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11">
+        <v>85103</v>
+      </c>
+      <c r="K11">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80048</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>84021</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>80048</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>84021</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>80048</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>84021</v>
+      </c>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15">
+        <v>80048</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>84021</v>
+      </c>
+      <c r="L15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>80048</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>84021</v>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>80048</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>84021</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5405</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>80000</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19">
+        <v>80000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" s="7"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20">
+        <v>80000</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20">
+        <v>80001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>80000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <v>80001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <v>80002</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <v>80003</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:N5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{33E4EE21-8AF1-4D1D-B842-2648850653F1}"/>
-  </hyperlinks>
+  <autoFilter ref="A4:N24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1544,6 +2206,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010038A02E6385B6944E837418522D443707" ma:contentTypeVersion="10" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="fe293c43d1092a3f02384a9ab64c3783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0277092-f208-41fd-9f2b-ef47bd2126a3" xmlns:ns3="23773914-4b94-40ee-8997-01f035a39c46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="939857c14651d60f87d65a43872e2870" ns2:_="" ns3:_="">
     <xsd:import namespace="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
@@ -1748,22 +2425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32CEF3FC-6E39-44C6-9F32-6A2E169DD33D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9C9FBDE-D64C-421D-AD80-ADD7D4C94566}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F23C0C8E-2D07-486B-B479-07A9711B0CA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1780,29 +2467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9C9FBDE-D64C-421D-AD80-ADD7D4C94566}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32CEF3FC-6E39-44C6-9F32-6A2E169DD33D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e0277092-f208-41fd-9f2b-ef47bd2126a3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="23773914-4b94-40ee-8997-01f035a39c46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/code/res/LJA Extensions documentations.xlsx
+++ b/code/res/LJA Extensions documentations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\altraining\al\code\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7472BDF-410B-4AFB-9FA1-9F4E6FED8BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D041B17F-70AE-4201-B4E1-B27D4E9F2481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>ITISGT Ev Purch Line</t>
+  </si>
+  <si>
+    <t>LJAItemChargeAssgntMgt.Codeunit.al</t>
+  </si>
+  <si>
+    <t>LJA Item Charge Assgnt. Mgt.</t>
   </si>
 </sst>
 </file>
@@ -1494,11 +1500,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,6 +2188,26 @@
         <v>134</v>
       </c>
       <c r="L24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25">
+        <v>80015</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25">
+        <v>80125</v>
+      </c>
+      <c r="L25" t="s">
         <v>102</v>
       </c>
     </row>
